--- a/COKE_Model.xlsx
+++ b/COKE_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Staples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3D681F-78A2-4CA2-9051-0BAD8975E13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E65F90-F8C3-46B6-A623-23294B1D97AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="1725" windowWidth="21495" windowHeight="11895" xr2:uid="{40F8B004-B1C9-49B7-BA0D-5FE96E50C6C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F8B004-B1C9-49B7-BA0D-5FE96E50C6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9161CA83-77FB-444F-AF1A-5B413B5AA0FC}">
   <dimension ref="B1:BY320"/>
   <sheetViews>
-    <sheetView topLeftCell="AB126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
